--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H2">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I2">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J2">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.4426765</v>
+        <v>22.93316</v>
       </c>
       <c r="N2">
-        <v>58.885353</v>
+        <v>45.86632</v>
       </c>
       <c r="O2">
-        <v>0.2070274275189755</v>
+        <v>0.1396482691634859</v>
       </c>
       <c r="P2">
-        <v>0.1657617245498156</v>
+        <v>0.102890409355429</v>
       </c>
       <c r="Q2">
-        <v>664.119080529363</v>
+        <v>1404.83880435204</v>
       </c>
       <c r="R2">
-        <v>2656.476322117452</v>
+        <v>5619.355217408161</v>
       </c>
       <c r="S2">
-        <v>0.01382175183463291</v>
+        <v>0.02210151070139733</v>
       </c>
       <c r="T2">
-        <v>0.007733991246974649</v>
+        <v>0.01174814139859675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H3">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I3">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J3">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>60.77969299999999</v>
       </c>
       <c r="O3">
-        <v>0.1424583290084953</v>
+        <v>0.1233698122098894</v>
       </c>
       <c r="P3">
-        <v>0.1710942741446817</v>
+        <v>0.1363450892347</v>
       </c>
       <c r="Q3">
-        <v>456.9891806543353</v>
+        <v>1241.080183207839</v>
       </c>
       <c r="R3">
-        <v>2741.935083926012</v>
+        <v>7446.481099247034</v>
       </c>
       <c r="S3">
-        <v>0.009510931444827201</v>
+        <v>0.01952519169137825</v>
       </c>
       <c r="T3">
-        <v>0.007982793508188807</v>
+        <v>0.01556803396320657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H4">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I4">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J4">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.68048566666667</v>
+        <v>13.42373266666667</v>
       </c>
       <c r="N4">
-        <v>68.04145700000001</v>
+        <v>40.271198</v>
       </c>
       <c r="O4">
-        <v>0.1594787961091443</v>
+        <v>0.08174194191351497</v>
       </c>
       <c r="P4">
-        <v>0.1915360727004919</v>
+        <v>0.09033905592281077</v>
       </c>
       <c r="Q4">
-        <v>511.5887914234314</v>
+        <v>822.310599558954</v>
       </c>
       <c r="R4">
-        <v>3069.532748540588</v>
+        <v>4933.863597353724</v>
       </c>
       <c r="S4">
-        <v>0.01064726722020722</v>
+        <v>0.01293693373198592</v>
       </c>
       <c r="T4">
-        <v>0.00893655223344593</v>
+        <v>0.01031501390115637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H5">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I5">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J5">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.965296</v>
+        <v>23.9510645</v>
       </c>
       <c r="N5">
-        <v>83.930592</v>
+        <v>47.902129</v>
       </c>
       <c r="O5">
-        <v>0.2950807572114699</v>
+        <v>0.1458466561977509</v>
       </c>
       <c r="P5">
-        <v>0.2362638408978708</v>
+        <v>0.1074572728269146</v>
       </c>
       <c r="Q5">
-        <v>946.5835687072321</v>
+        <v>1467.193566658001</v>
       </c>
       <c r="R5">
-        <v>3786.334274828928</v>
+        <v>5868.774266632003</v>
       </c>
       <c r="S5">
-        <v>0.01970044764710549</v>
+        <v>0.02308250186004055</v>
       </c>
       <c r="T5">
-        <v>0.01102342825186767</v>
+        <v>0.0122695909500876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H6">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I6">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J6">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.02974533333333</v>
+        <v>50.91805766666667</v>
       </c>
       <c r="N6">
-        <v>51.089236</v>
+        <v>152.754173</v>
       </c>
       <c r="O6">
-        <v>0.1197453759906399</v>
+        <v>0.3100583880423179</v>
       </c>
       <c r="P6">
-        <v>0.1438157272368313</v>
+        <v>0.3426684196752655</v>
       </c>
       <c r="Q6">
-        <v>384.1287599115707</v>
+        <v>3119.13679808488</v>
       </c>
       <c r="R6">
-        <v>2304.772559469424</v>
+        <v>18714.82078850927</v>
       </c>
       <c r="S6">
-        <v>0.007994548790573819</v>
+        <v>0.04907156259382481</v>
       </c>
       <c r="T6">
-        <v>0.006710050698662231</v>
+        <v>0.03912626135320448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H7">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I7">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J7">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.83820733333333</v>
+        <v>32.73495566666667</v>
       </c>
       <c r="N7">
-        <v>32.514622</v>
+        <v>98.20486700000001</v>
       </c>
       <c r="O7">
-        <v>0.07620931416127522</v>
+        <v>0.199334932473041</v>
       </c>
       <c r="P7">
-        <v>0.09152836047030874</v>
+        <v>0.2202997529848801</v>
       </c>
       <c r="Q7">
-        <v>244.4703112775747</v>
+        <v>2005.276899445041</v>
       </c>
       <c r="R7">
-        <v>1466.821867665448</v>
+        <v>12031.66139667025</v>
       </c>
       <c r="S7">
-        <v>0.005087954965426864</v>
+        <v>0.03154785354380297</v>
       </c>
       <c r="T7">
-        <v>0.004270464370769576</v>
+        <v>0.02515407086390161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>408.782051</v>
       </c>
       <c r="I8">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J8">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.4426765</v>
+        <v>22.93316</v>
       </c>
       <c r="N8">
-        <v>58.885353</v>
+        <v>45.86632</v>
       </c>
       <c r="O8">
-        <v>0.2070274275189755</v>
+        <v>0.1396482691634859</v>
       </c>
       <c r="P8">
-        <v>0.1657617245498156</v>
+        <v>0.102890409355429</v>
       </c>
       <c r="Q8">
-        <v>4011.8792288665</v>
+        <v>3124.888060237053</v>
       </c>
       <c r="R8">
-        <v>24071.27537319901</v>
+        <v>18749.32836142232</v>
       </c>
       <c r="S8">
-        <v>0.08349586801166982</v>
+        <v>0.04916204385160973</v>
       </c>
       <c r="T8">
-        <v>0.07008044133118625</v>
+        <v>0.0391984048341236</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>408.782051</v>
       </c>
       <c r="I9">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J9">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>60.77969299999999</v>
       </c>
       <c r="O9">
-        <v>0.1424583290084953</v>
+        <v>0.1233698122098894</v>
       </c>
       <c r="P9">
-        <v>0.1710942741446817</v>
+        <v>0.1363450892347</v>
       </c>
       <c r="Q9">
         <v>2760.627507076704</v>
@@ -1013,10 +1013,10 @@
         <v>24845.64756369034</v>
       </c>
       <c r="S9">
-        <v>0.05745461834986153</v>
+        <v>0.04343134472169523</v>
       </c>
       <c r="T9">
-        <v>0.07233492697944786</v>
+        <v>0.05194371407838579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>408.782051</v>
       </c>
       <c r="I10">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J10">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.68048566666667</v>
+        <v>13.42373266666667</v>
       </c>
       <c r="N10">
-        <v>68.04145700000001</v>
+        <v>40.271198</v>
       </c>
       <c r="O10">
-        <v>0.1594787961091443</v>
+        <v>0.08174194191351497</v>
       </c>
       <c r="P10">
-        <v>0.1915360727004919</v>
+        <v>0.09033905592281077</v>
       </c>
       <c r="Q10">
-        <v>3090.458482832034</v>
+        <v>1829.126990518566</v>
       </c>
       <c r="R10">
-        <v>27814.12634548831</v>
+        <v>16462.1429146671</v>
       </c>
       <c r="S10">
-        <v>0.06431911302848331</v>
+        <v>0.02877658962005029</v>
       </c>
       <c r="T10">
-        <v>0.08097727350597581</v>
+        <v>0.03441668575894356</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>408.782051</v>
       </c>
       <c r="I11">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J11">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.965296</v>
+        <v>23.9510645</v>
       </c>
       <c r="N11">
-        <v>83.930592</v>
+        <v>47.902129</v>
       </c>
       <c r="O11">
-        <v>0.2950807572114699</v>
+        <v>0.1458466561977509</v>
       </c>
       <c r="P11">
-        <v>0.2362638408978708</v>
+        <v>0.1074572728269146</v>
       </c>
       <c r="Q11">
-        <v>5718.219923234033</v>
+        <v>3263.58842331443</v>
       </c>
       <c r="R11">
-        <v>34309.3195394042</v>
+        <v>19581.53053988658</v>
       </c>
       <c r="S11">
-        <v>0.119008501685866</v>
+        <v>0.05134413588191654</v>
       </c>
       <c r="T11">
-        <v>0.0998871982400739</v>
+        <v>0.04093825371118529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>408.782051</v>
       </c>
       <c r="I12">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J12">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.02974533333333</v>
+        <v>50.91805766666667</v>
       </c>
       <c r="N12">
-        <v>51.089236</v>
+        <v>152.754173</v>
       </c>
       <c r="O12">
-        <v>0.1197453759906399</v>
+        <v>0.3100583880423179</v>
       </c>
       <c r="P12">
-        <v>0.1438157272368313</v>
+        <v>0.3426684196752655</v>
       </c>
       <c r="Q12">
-        <v>2320.484741789227</v>
+        <v>6938.129348638759</v>
       </c>
       <c r="R12">
-        <v>20884.36267610304</v>
+        <v>62443.16413774883</v>
       </c>
       <c r="S12">
-        <v>0.04829429717859889</v>
+        <v>0.1091535481306309</v>
       </c>
       <c r="T12">
-        <v>0.06080215238164792</v>
+        <v>0.1305472057351833</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>408.782051</v>
       </c>
       <c r="I13">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J13">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.83820733333333</v>
+        <v>32.73495566666667</v>
       </c>
       <c r="N13">
-        <v>32.514622</v>
+        <v>98.20486700000001</v>
       </c>
       <c r="O13">
-        <v>0.07620931416127522</v>
+        <v>0.199334932473041</v>
       </c>
       <c r="P13">
-        <v>0.09152836047030874</v>
+        <v>0.2202997529848801</v>
       </c>
       <c r="Q13">
-        <v>1476.82154096108</v>
+        <v>4460.487438938025</v>
       </c>
       <c r="R13">
-        <v>13291.39386864972</v>
+        <v>40144.38695044223</v>
       </c>
       <c r="S13">
-        <v>0.0307358445821701</v>
+        <v>0.07017425099572702</v>
       </c>
       <c r="T13">
-        <v>0.03869619427222756</v>
+        <v>0.08392812271285913</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H14">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I14">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J14">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.4426765</v>
+        <v>22.93316</v>
       </c>
       <c r="N14">
-        <v>58.885353</v>
+        <v>45.86632</v>
       </c>
       <c r="O14">
-        <v>0.2070274275189755</v>
+        <v>0.1396482691634859</v>
       </c>
       <c r="P14">
-        <v>0.1657617245498156</v>
+        <v>0.102890409355429</v>
       </c>
       <c r="Q14">
-        <v>1767.631361258952</v>
+        <v>1296.48551717416</v>
       </c>
       <c r="R14">
-        <v>10605.78816755371</v>
+        <v>7778.913103044961</v>
       </c>
       <c r="S14">
-        <v>0.03678822477282427</v>
+        <v>0.0203968515414462</v>
       </c>
       <c r="T14">
-        <v>0.03087739656182831</v>
+        <v>0.01626303508610021</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H15">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I15">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J15">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>60.77969299999999</v>
       </c>
       <c r="O15">
-        <v>0.1424583290084953</v>
+        <v>0.1233698122098894</v>
       </c>
       <c r="P15">
-        <v>0.1710942741446817</v>
+        <v>0.1363450892347</v>
       </c>
       <c r="Q15">
-        <v>1216.330671958341</v>
+        <v>1145.357373526539</v>
       </c>
       <c r="R15">
-        <v>10946.97604762507</v>
+        <v>10308.21636173885</v>
       </c>
       <c r="S15">
-        <v>0.02531446722364902</v>
+        <v>0.01801924047762682</v>
       </c>
       <c r="T15">
-        <v>0.03187072146221455</v>
+        <v>0.02155093933372896</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H16">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I16">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J16">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.68048566666667</v>
+        <v>13.42373266666667</v>
       </c>
       <c r="N16">
-        <v>68.04145700000001</v>
+        <v>40.271198</v>
       </c>
       <c r="O16">
-        <v>0.1594787961091443</v>
+        <v>0.08174194191351497</v>
       </c>
       <c r="P16">
-        <v>0.1915360727004919</v>
+        <v>0.09033905592281077</v>
       </c>
       <c r="Q16">
-        <v>1361.653983902725</v>
+        <v>758.8869126082494</v>
       </c>
       <c r="R16">
-        <v>12254.88585512453</v>
+        <v>6829.982213474244</v>
       </c>
       <c r="S16">
-        <v>0.02833895908417676</v>
+        <v>0.01193912580447098</v>
       </c>
       <c r="T16">
-        <v>0.03567853368279186</v>
+        <v>0.01427914657276382</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H17">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I17">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J17">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.965296</v>
+        <v>23.9510645</v>
       </c>
       <c r="N17">
-        <v>83.930592</v>
+        <v>47.902129</v>
       </c>
       <c r="O17">
-        <v>0.2950807572114699</v>
+        <v>0.1458466561977509</v>
       </c>
       <c r="P17">
-        <v>0.2362638408978708</v>
+        <v>0.1074572728269146</v>
       </c>
       <c r="Q17">
-        <v>2519.443953884928</v>
+        <v>1354.030942319077</v>
       </c>
       <c r="R17">
-        <v>15116.66372330957</v>
+        <v>8124.185653914463</v>
       </c>
       <c r="S17">
-        <v>0.05243506791599273</v>
+        <v>0.02130218019959318</v>
       </c>
       <c r="T17">
-        <v>0.04401023413841154</v>
+        <v>0.01698488138193555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H18">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I18">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J18">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.02974533333333</v>
+        <v>50.91805766666667</v>
       </c>
       <c r="N18">
-        <v>51.089236</v>
+        <v>152.754173</v>
       </c>
       <c r="O18">
-        <v>0.1197453759906399</v>
+        <v>0.3100583880423179</v>
       </c>
       <c r="P18">
-        <v>0.1438157272368313</v>
+        <v>0.3426684196752655</v>
       </c>
       <c r="Q18">
-        <v>1022.404057778283</v>
+        <v>2878.5620615507</v>
       </c>
       <c r="R18">
-        <v>9201.636520004544</v>
+        <v>25907.0585539563</v>
       </c>
       <c r="S18">
-        <v>0.02127843571377153</v>
+        <v>0.04528674037968586</v>
       </c>
       <c r="T18">
-        <v>0.02678938852608789</v>
+        <v>0.05416275984310975</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H19">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I19">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J19">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.83820733333333</v>
+        <v>32.73495566666667</v>
       </c>
       <c r="N19">
-        <v>32.514622</v>
+        <v>98.20486700000001</v>
       </c>
       <c r="O19">
-        <v>0.07620931416127522</v>
+        <v>0.199334932473041</v>
       </c>
       <c r="P19">
-        <v>0.09152836047030874</v>
+        <v>0.2202997529848801</v>
       </c>
       <c r="Q19">
-        <v>650.6866039242988</v>
+        <v>1850.612646803648</v>
       </c>
       <c r="R19">
-        <v>5856.179435318689</v>
+        <v>16655.51382123283</v>
       </c>
       <c r="S19">
-        <v>0.01354219299706462</v>
+        <v>0.02911461093668832</v>
       </c>
       <c r="T19">
-        <v>0.01704951785806476</v>
+        <v>0.03482095789779526</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H20">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I20">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J20">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.4426765</v>
+        <v>22.93316</v>
       </c>
       <c r="N20">
-        <v>58.885353</v>
+        <v>45.86632</v>
       </c>
       <c r="O20">
-        <v>0.2070274275189755</v>
+        <v>0.1396482691634859</v>
       </c>
       <c r="P20">
-        <v>0.1657617245498156</v>
+        <v>0.102890409355429</v>
       </c>
       <c r="Q20">
-        <v>710.1891111066053</v>
+        <v>617.3578693544799</v>
       </c>
       <c r="R20">
-        <v>2840.756444426421</v>
+        <v>2469.43147741792</v>
       </c>
       <c r="S20">
-        <v>0.01478056863168237</v>
+        <v>0.009712531796431422</v>
       </c>
       <c r="T20">
-        <v>0.008270499267416163</v>
+        <v>0.005162732920136051</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H21">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I21">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J21">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>60.77969299999999</v>
       </c>
       <c r="O21">
-        <v>0.1424583290084953</v>
+        <v>0.1233698122098894</v>
       </c>
       <c r="P21">
-        <v>0.1710942741446817</v>
+        <v>0.1363450892347</v>
       </c>
       <c r="Q21">
-        <v>488.6905820196335</v>
+        <v>545.3939734791512</v>
       </c>
       <c r="R21">
-        <v>2932.143492117801</v>
+        <v>3272.363840874908</v>
       </c>
       <c r="S21">
-        <v>0.01017070604749633</v>
+        <v>0.008580365735901496</v>
       </c>
       <c r="T21">
-        <v>0.008536560975193258</v>
+        <v>0.006841388668784911</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H22">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I22">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J22">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.68048566666667</v>
+        <v>13.42373266666667</v>
       </c>
       <c r="N22">
-        <v>68.04145700000001</v>
+        <v>40.271198</v>
       </c>
       <c r="O22">
-        <v>0.1594787961091443</v>
+        <v>0.08174194191351497</v>
       </c>
       <c r="P22">
-        <v>0.1915360727004919</v>
+        <v>0.09033905592281077</v>
       </c>
       <c r="Q22">
-        <v>547.0777751837917</v>
+        <v>361.3652456912813</v>
       </c>
       <c r="R22">
-        <v>3282.46665110275</v>
+        <v>2168.191474147688</v>
       </c>
       <c r="S22">
-        <v>0.01138586958954139</v>
+        <v>0.005685148943791224</v>
       </c>
       <c r="T22">
-        <v>0.009556482072416691</v>
+        <v>0.00453294355526925</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H23">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I23">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J23">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.965296</v>
+        <v>23.9510645</v>
       </c>
       <c r="N23">
-        <v>83.930592</v>
+        <v>47.902129</v>
       </c>
       <c r="O23">
-        <v>0.2950807572114699</v>
+        <v>0.1458466561977509</v>
       </c>
       <c r="P23">
-        <v>0.2362638408978708</v>
+        <v>0.1074572728269146</v>
       </c>
       <c r="Q23">
-        <v>1012.248199091736</v>
+        <v>644.759734310131</v>
       </c>
       <c r="R23">
-        <v>4048.992796366945</v>
+        <v>2579.038937240524</v>
       </c>
       <c r="S23">
-        <v>0.02106707036898855</v>
+        <v>0.01014362937835997</v>
       </c>
       <c r="T23">
-        <v>0.01178812496292253</v>
+        <v>0.005391884466268579</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H24">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I24">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J24">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.02974533333333</v>
+        <v>50.91805766666667</v>
       </c>
       <c r="N24">
-        <v>51.089236</v>
+        <v>152.754173</v>
       </c>
       <c r="O24">
-        <v>0.1197453759906399</v>
+        <v>0.3100583880423179</v>
       </c>
       <c r="P24">
-        <v>0.1438157272368313</v>
+        <v>0.3426684196752655</v>
       </c>
       <c r="Q24">
-        <v>410.7758240203421</v>
+        <v>1370.707900383631</v>
       </c>
       <c r="R24">
-        <v>2464.654944122052</v>
+        <v>8224.247402301788</v>
       </c>
       <c r="S24">
-        <v>0.008549131723109676</v>
+        <v>0.02156454906781398</v>
       </c>
       <c r="T24">
-        <v>0.007175527824565328</v>
+        <v>0.01719407612459987</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H25">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I25">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J25">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.83820733333333</v>
+        <v>32.73495566666667</v>
       </c>
       <c r="N25">
-        <v>32.514622</v>
+        <v>98.20486700000001</v>
       </c>
       <c r="O25">
-        <v>0.07620931416127522</v>
+        <v>0.199334932473041</v>
       </c>
       <c r="P25">
-        <v>0.09152836047030874</v>
+        <v>0.2202997529848801</v>
       </c>
       <c r="Q25">
-        <v>261.4292498866091</v>
+        <v>881.2210128820753</v>
       </c>
       <c r="R25">
-        <v>1568.575499319654</v>
+        <v>5287.326077292451</v>
       </c>
       <c r="S25">
-        <v>0.005440907090587924</v>
+        <v>0.01386373695414295</v>
       </c>
       <c r="T25">
-        <v>0.004566707062642785</v>
+        <v>0.01105398252527089</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H26">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I26">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J26">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.4426765</v>
+        <v>22.93316</v>
       </c>
       <c r="N26">
-        <v>58.885353</v>
+        <v>45.86632</v>
       </c>
       <c r="O26">
-        <v>0.2070274275189755</v>
+        <v>0.1396482691634859</v>
       </c>
       <c r="P26">
-        <v>0.1657617245498156</v>
+        <v>0.102890409355429</v>
       </c>
       <c r="Q26">
-        <v>799.452500089221</v>
+        <v>1090.629591651507</v>
       </c>
       <c r="R26">
-        <v>4796.715000535326</v>
+        <v>6543.77754990904</v>
       </c>
       <c r="S26">
-        <v>0.01663833246742789</v>
+        <v>0.01715824015999062</v>
       </c>
       <c r="T26">
-        <v>0.01396502258254722</v>
+        <v>0.01368079093828007</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H27">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I27">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J27">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>60.77969299999999</v>
       </c>
       <c r="O27">
-        <v>0.1424583290084953</v>
+        <v>0.1233698122098894</v>
       </c>
       <c r="P27">
-        <v>0.1710942741446817</v>
+        <v>0.1363450892347</v>
       </c>
       <c r="Q27">
-        <v>550.1139083319561</v>
+        <v>963.497569419041</v>
       </c>
       <c r="R27">
-        <v>4951.025174987605</v>
+        <v>8671.478124771371</v>
       </c>
       <c r="S27">
-        <v>0.0114490580750723</v>
+        <v>0.01515814609855337</v>
       </c>
       <c r="T27">
-        <v>0.01441427693072142</v>
+        <v>0.01812908193257808</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H28">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I28">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J28">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.68048566666667</v>
+        <v>13.42373266666667</v>
       </c>
       <c r="N28">
-        <v>68.04145700000001</v>
+        <v>40.271198</v>
       </c>
       <c r="O28">
-        <v>0.1594787961091443</v>
+        <v>0.08174194191351497</v>
       </c>
       <c r="P28">
-        <v>0.1915360727004919</v>
+        <v>0.09033905592281077</v>
       </c>
       <c r="Q28">
-        <v>615.8397647528549</v>
+        <v>638.3908749027895</v>
       </c>
       <c r="R28">
-        <v>5542.557882775694</v>
+        <v>5745.517874125106</v>
       </c>
       <c r="S28">
-        <v>0.01281695504295382</v>
+        <v>0.01004343182266107</v>
       </c>
       <c r="T28">
-        <v>0.01613644879660339</v>
+        <v>0.01201190417439381</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H29">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I29">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J29">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>41.965296</v>
+        <v>23.9510645</v>
       </c>
       <c r="N29">
-        <v>83.930592</v>
+        <v>47.902129</v>
       </c>
       <c r="O29">
-        <v>0.2950807572114699</v>
+        <v>0.1458466561977509</v>
       </c>
       <c r="P29">
-        <v>0.2362638408978708</v>
+        <v>0.1074572728269146</v>
       </c>
       <c r="Q29">
-        <v>1139.477275586144</v>
+        <v>1139.037956184577</v>
       </c>
       <c r="R29">
-        <v>6836.863653516863</v>
+        <v>6834.227737107463</v>
       </c>
       <c r="S29">
-        <v>0.02371498212609922</v>
+        <v>0.01791982076514643</v>
       </c>
       <c r="T29">
-        <v>0.01990465460309896</v>
+        <v>0.01428802250425852</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H30">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I30">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J30">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>17.02974533333333</v>
+        <v>50.91805766666667</v>
       </c>
       <c r="N30">
-        <v>51.089236</v>
+        <v>152.754173</v>
       </c>
       <c r="O30">
-        <v>0.1197453759906399</v>
+        <v>0.3100583880423179</v>
       </c>
       <c r="P30">
-        <v>0.1438157272368313</v>
+        <v>0.3426684196752655</v>
       </c>
       <c r="Q30">
-        <v>462.4060751615457</v>
+        <v>2421.504077095548</v>
       </c>
       <c r="R30">
-        <v>4161.654676453912</v>
+        <v>21793.53669385993</v>
       </c>
       <c r="S30">
-        <v>0.009623668714073209</v>
+        <v>0.03809611331037319</v>
       </c>
       <c r="T30">
-        <v>0.01211612562575764</v>
+        <v>0.04556279871075041</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H31">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I31">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J31">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.83820733333333</v>
+        <v>32.73495566666667</v>
       </c>
       <c r="N31">
-        <v>32.514622</v>
+        <v>98.20486700000001</v>
       </c>
       <c r="O31">
-        <v>0.07620931416127522</v>
+        <v>0.199334932473041</v>
       </c>
       <c r="P31">
-        <v>0.09152836047030874</v>
+        <v>0.2202997529848801</v>
       </c>
       <c r="Q31">
-        <v>294.2881890890138</v>
+        <v>1556.77243482655</v>
       </c>
       <c r="R31">
-        <v>2648.593701801124</v>
+        <v>14010.95191343895</v>
       </c>
       <c r="S31">
-        <v>0.006124772554659391</v>
+        <v>0.0244917940203318</v>
       </c>
       <c r="T31">
-        <v>0.00771104200552193</v>
+        <v>0.02929208740855162</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H32">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I32">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J32">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>29.4426765</v>
+        <v>22.93316</v>
       </c>
       <c r="N32">
-        <v>58.885353</v>
+        <v>45.86632</v>
       </c>
       <c r="O32">
-        <v>0.2070274275189755</v>
+        <v>0.1396482691634859</v>
       </c>
       <c r="P32">
-        <v>0.1657617245498156</v>
+        <v>0.102890409355429</v>
       </c>
       <c r="Q32">
-        <v>1994.155531569131</v>
+        <v>1342.266120666467</v>
       </c>
       <c r="R32">
-        <v>11964.93318941478</v>
+        <v>8053.596723998799</v>
       </c>
       <c r="S32">
-        <v>0.04150268180073822</v>
+        <v>0.02111709111261061</v>
       </c>
       <c r="T32">
-        <v>0.03483437355986305</v>
+        <v>0.01683730417819235</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H33">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I33">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J33">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>60.77969299999999</v>
       </c>
       <c r="O33">
-        <v>0.1424583290084953</v>
+        <v>0.1233698122098894</v>
       </c>
       <c r="P33">
-        <v>0.1710942741446817</v>
+        <v>0.1363450892347</v>
       </c>
       <c r="Q33">
-        <v>1372.204969239391</v>
+        <v>1185.801444115694</v>
       </c>
       <c r="R33">
-        <v>12349.84472315452</v>
+        <v>10672.21299704124</v>
       </c>
       <c r="S33">
-        <v>0.02855854786758891</v>
+        <v>0.01865552348473421</v>
       </c>
       <c r="T33">
-        <v>0.03595499428891583</v>
+        <v>0.02231193125801565</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H34">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I34">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J34">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>22.68048566666667</v>
+        <v>13.42373266666667</v>
       </c>
       <c r="N34">
-        <v>68.04145700000001</v>
+        <v>40.271198</v>
       </c>
       <c r="O34">
-        <v>0.1594787961091443</v>
+        <v>0.08174194191351497</v>
       </c>
       <c r="P34">
-        <v>0.1915360727004919</v>
+        <v>0.09033905592281077</v>
       </c>
       <c r="Q34">
-        <v>1536.151645413681</v>
+        <v>785.6842045034521</v>
       </c>
       <c r="R34">
-        <v>13825.36480872313</v>
+        <v>7071.157840531069</v>
       </c>
       <c r="S34">
-        <v>0.03197063214378186</v>
+        <v>0.01236071199055548</v>
       </c>
       <c r="T34">
-        <v>0.04025078240925819</v>
+        <v>0.01478336196028396</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H35">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I35">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J35">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>41.965296</v>
+        <v>23.9510645</v>
       </c>
       <c r="N35">
-        <v>83.930592</v>
+        <v>47.902129</v>
       </c>
       <c r="O35">
-        <v>0.2950807572114699</v>
+        <v>0.1458466561977509</v>
       </c>
       <c r="P35">
-        <v>0.2362638408978708</v>
+        <v>0.1074572728269146</v>
       </c>
       <c r="Q35">
-        <v>2842.313848482352</v>
+        <v>1401.843550223664</v>
       </c>
       <c r="R35">
-        <v>17053.88309089411</v>
+        <v>8411.061301341984</v>
       </c>
       <c r="S35">
-        <v>0.059154687467418</v>
+        <v>0.02205438811269418</v>
       </c>
       <c r="T35">
-        <v>0.04965020070149623</v>
+        <v>0.01758463981317902</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H36">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I36">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J36">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>17.02974533333333</v>
+        <v>50.91805766666667</v>
       </c>
       <c r="N36">
-        <v>51.089236</v>
+        <v>152.754173</v>
       </c>
       <c r="O36">
-        <v>0.1197453759906399</v>
+        <v>0.3100583880423179</v>
       </c>
       <c r="P36">
-        <v>0.1438157272368313</v>
+        <v>0.3426684196752655</v>
       </c>
       <c r="Q36">
-        <v>1153.4264168436</v>
+        <v>2980.20786215716</v>
       </c>
       <c r="R36">
-        <v>10380.8377515924</v>
+        <v>26821.87075941444</v>
       </c>
       <c r="S36">
-        <v>0.02400529387051276</v>
+        <v>0.04688587455998918</v>
       </c>
       <c r="T36">
-        <v>0.03022248218011028</v>
+        <v>0.05607531790841772</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H37">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I37">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J37">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.83820733333333</v>
+        <v>32.73495566666667</v>
       </c>
       <c r="N37">
-        <v>32.514622</v>
+        <v>98.20486700000001</v>
       </c>
       <c r="O37">
-        <v>0.07620931416127522</v>
+        <v>0.199334932473041</v>
       </c>
       <c r="P37">
-        <v>0.09152836047030874</v>
+        <v>0.2202997529848801</v>
       </c>
       <c r="Q37">
-        <v>734.0729062474936</v>
+        <v>1915.960205784351</v>
       </c>
       <c r="R37">
-        <v>6606.656156227443</v>
+        <v>17243.64185205915</v>
       </c>
       <c r="S37">
-        <v>0.01527764197136632</v>
+        <v>0.03014268602234795</v>
       </c>
       <c r="T37">
-        <v>0.01923443490108213</v>
+        <v>0.03605053157650155</v>
       </c>
     </row>
   </sheetData>
